--- a/data/cat_groupings.xlsx
+++ b/data/cat_groupings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gaia.pasteur.fr\@home\Ctcmodeler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qleclerc\Documents\R\network_algorithm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27406BD-F85F-4305-AEAB-2361C0F01BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063562AD-38C2-4A37-B1CF-C597E3A94E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{D1C29BD6-CA7A-431F-9929-32C71309BE70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1C29BD6-CA7A-431F-9929-32C71309BE70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>cat</t>
   </si>
@@ -135,6 +135,48 @@
   </si>
   <si>
     <t>Care assistants</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>Animation/hairdresser</t>
+  </si>
+  <si>
+    <t>Logistic</t>
+  </si>
+  <si>
+    <t>Hospital service agent</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Occupational therapist</t>
+  </si>
+  <si>
+    <t>Physiotherapist</t>
+  </si>
+  <si>
+    <t>Physician</t>
+  </si>
+  <si>
+    <t>Other re-education</t>
+  </si>
+  <si>
+    <t>Head nurse</t>
+  </si>
+  <si>
+    <t>Care assistant</t>
+  </si>
+  <si>
+    <t>Student/intern</t>
+  </si>
+  <si>
+    <t>Persistent vegetative state</t>
   </si>
 </sst>
 </file>
@@ -489,10 +531,13 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -510,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -521,7 +566,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -532,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -543,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -554,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -565,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -576,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -587,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -598,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -609,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -620,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -631,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -642,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -653,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -664,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -675,7 +720,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -697,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -708,7 +753,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
